--- a/data.xlsx
+++ b/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,14 +459,24 @@
           <t>EB00CEE6-848F-4E2A-9A56-C0CD83D55630.jpg</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="C2" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v/>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v/>
+        <v>32</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>BESC-34</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -501,14 +511,24 @@
           <t>F7D01515-92CA-4AF5-9BD9-3A4CD99EDF42.jpg</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="C4" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v/>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v/>
+        <v>40</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>BESC-468</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -616,11 +636,6 @@
           <t>E3666414-68C0-4ACE-B882-FDC78306DE27.jpg</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
@@ -710,14 +725,24 @@
           <t>F852C361-F6F6-4EF8-B908-79F6603ABC97.jpg</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="C13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v/>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v/>
+        <v>37</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>GW-9875</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -730,10 +755,15 @@
         <v/>
       </c>
       <c r="D14" t="n">
-        <v/>
+        <v>21</v>
       </c>
       <c r="E14" t="n">
-        <v/>
+        <v>32</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>**GW-8628**,core</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -768,14 +798,24 @@
           <t>3172BCA6-386F-463F-A540-BBC2BDAF05C1.jpg</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="C16" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v/>
+        <v>16</v>
       </c>
       <c r="E16" t="n">
-        <v/>
+        <v>54</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>**BESC-56**,core</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -857,24 +897,14 @@
           <t>853F2470-015F-4C8E-B245-A27602C06D36.jpg</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="D20" t="n">
-        <v>26</v>
+        <v/>
       </c>
       <c r="E20" t="n">
-        <v>45</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>**BESC-151**,core</t>
-        </is>
+        <v/>
       </c>
     </row>
     <row r="21">
@@ -909,8 +939,13 @@
           <t>C6366FE2-8FDE-4D5B-8F27-BB5F2693F618.jpg</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="C22" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>16</v>
@@ -942,12 +977,7 @@
         <v>6</v>
       </c>
       <c r="E23" t="n">
-        <v>78</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>GW-9837</t>
-        </is>
+        <v/>
       </c>
     </row>
     <row r="24">
@@ -956,19 +986,14 @@
           <t>9AC1B241-B7D3-4EDF-B580-E9211DBCB340.jpg</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="C24" t="n">
-        <v>9</v>
+        <v/>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v/>
       </c>
       <c r="E24" t="n">
-        <v>35</v>
+        <v/>
       </c>
     </row>
     <row r="25">
@@ -1045,14 +1070,24 @@
           <t>F827288E-5343-4C96-BE73-D246C65C6E66.jpg</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="C28" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v/>
+        <v>51</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>BESC-838</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1086,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
         <v/>
@@ -1104,18 +1139,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D31" t="n">
-        <v>41</v>
+        <v/>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>**GW-9859**,core</t>
-        </is>
+        <v/>
       </c>
     </row>
     <row r="32">
@@ -1124,14 +1154,19 @@
           <t>7E7976E7-2B12-4C0C-8FDF-EE52F4999A15.jpg</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="C32" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v/>
+        <v>11</v>
       </c>
       <c r="E32" t="n">
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -1238,10 +1273,15 @@
         <v/>
       </c>
       <c r="D37" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v/>
+        <v>17</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>BESC-138</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1290,11 +1330,6 @@
       <c r="E39" t="n">
         <v>1</v>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>BESC-1214</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1303,13 +1338,18 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v/>
+        <v>25</v>
       </c>
       <c r="E40" t="n">
-        <v/>
+        <v>25</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>BESC-1031</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1325,7 +1365,12 @@
         <v/>
       </c>
       <c r="E41" t="n">
-        <v/>
+        <v>28</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>**GW-9833**,core</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -1334,14 +1379,24 @@
           <t>C4412DCC-DF70-40D2-ADD8-99CDE28E289D.jpg</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="C42" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v/>
+        <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NHTB-27-1</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -1387,8 +1442,13 @@
           <t>C9258BF9-8279-452A-A75E-56DDF64DBB77.jpg</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="C45" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>23</v>
@@ -1455,24 +1515,14 @@
           <t>1A95B21F-CD2E-46B8-A25D-6A2FA418ADCD.jpg</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="D48" t="n">
-        <v>21</v>
+        <v/>
       </c>
       <c r="E48" t="n">
-        <v>31</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>GW-11046</t>
-        </is>
+        <v/>
       </c>
     </row>
     <row r="49">
@@ -1536,6 +1586,2376 @@
       </c>
       <c r="E51" t="n">
         <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>9B270845-0033-4C7C-B81B-8E4A593994B0.jpg</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>11</v>
+      </c>
+      <c r="E52" t="n">
+        <v>54</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>**BESC-1161**,core</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>389E27AD-B37D-46C3-9EF4-2BC24E988E54.jpg</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v/>
+      </c>
+      <c r="D53" t="n">
+        <v/>
+      </c>
+      <c r="E53" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>7662E49B-ECC2-460D-AC7D-292F4938FF9C.jpg</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>29</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>GW-9873</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>6AF4110F-96FF-49B3-998F-DC62A4FB68D7.jpg</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>24</v>
+      </c>
+      <c r="E55" t="n">
+        <v>27</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>**ESC-132**,core</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>65AD5297-C68D-4233-BD27-532DDBC55AA8.jpg</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>23</v>
+      </c>
+      <c r="E56" t="n">
+        <v>34</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>BESC-1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>5D129F60-E0FB-4971-9E1D-4452F9189B1F.jpg</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v/>
+      </c>
+      <c r="D57" t="n">
+        <v/>
+      </c>
+      <c r="E57" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>BDF45D14-4728-44C2-B318-C5C58152B627.jpg</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>2</v>
+      </c>
+      <c r="D58" t="n">
+        <v>42</v>
+      </c>
+      <c r="E58" t="n">
+        <v>52</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>BESC-1224</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>7D7D6308-62E9-4E50-9D52-1252B3E99A06.jpg</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>16</v>
+      </c>
+      <c r="E59" t="n">
+        <v>16</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>GW-521</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BFB53B68-39EB-41BA-9421-35E8E8D190D1.jpg</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="n">
+        <v>37</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>**WELC-27-4**,core</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>594EDE8F-674F-4CD4-932D-5AC43717D638.jpg</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>2</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3</v>
+      </c>
+      <c r="E61" t="n">
+        <v>36</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>BESC-95</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>E2DEE86A-4129-45B3-98D0-C757222C5890.jpg</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v/>
+      </c>
+      <c r="D62" t="n">
+        <v/>
+      </c>
+      <c r="E62" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>7621CBDE-5EF2-4988-BD56-A44FFAD7CAA7.jpg</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v/>
+      </c>
+      <c r="D63" t="n">
+        <v>23</v>
+      </c>
+      <c r="E63" t="n">
+        <v>56</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>DEND-17-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>C071463E-F3B7-402F-8E2E-8E9D8032C9E6.jpg</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" t="n">
+        <v/>
+      </c>
+      <c r="E64" t="n">
+        <v>18</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>GW-7994</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>5B6E720A-8AFA-467E-BD3C-90CE758ED63A.jpg</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3</v>
+      </c>
+      <c r="E65" t="n">
+        <v>17</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>GW-9828</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>9F818B4E-B177-4BA9-88B7-D862D3F04EBE.jpg</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" t="n">
+        <v>25</v>
+      </c>
+      <c r="E66" t="n">
+        <v>31</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>BESC-902</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>FB6A85A0-68CF-4D5E-A308-AD47FC9AA304.jpg</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v/>
+      </c>
+      <c r="D67" t="n">
+        <v/>
+      </c>
+      <c r="E67" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>350BFE37-426A-424E-8759-94B4B84EDC4F.jpg</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>2</v>
+      </c>
+      <c r="D68" t="n">
+        <v>7</v>
+      </c>
+      <c r="E68" t="n">
+        <v>36</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>GW-2228</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>0CD2B0E5-B4E5-4D43-9F33-1A2AE266C851.jpg</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v/>
+      </c>
+      <c r="D69" t="n">
+        <v/>
+      </c>
+      <c r="E69" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>BA66CF96-E140-4041-A52A-DF01DDEF9A58.jpg</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>6</v>
+      </c>
+      <c r="E70" t="n">
+        <v>17</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>BESC-213</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4EE72402-4667-4905-B87D-0D32FE3D1312.jpg</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v/>
+      </c>
+      <c r="D71" t="n">
+        <v/>
+      </c>
+      <c r="E71" t="n">
+        <v>12</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>BESC-1168</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>85E0C770-2A1D-4409-B4A1-E4462A188628.jpg</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v/>
+      </c>
+      <c r="D72" t="n">
+        <v>3</v>
+      </c>
+      <c r="E72" t="n">
+        <v>29</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>BESC-105</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4A21BC74-6F1E-43AD-87CB-B6E89CBB5AEF.jpg</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>2</v>
+      </c>
+      <c r="D73" t="n">
+        <v>26</v>
+      </c>
+      <c r="E73" t="n">
+        <v>52</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>**VNDL-27-4**,core</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>3F49A667-0FC0-4012-9FE9-629578B0BF64.jpg</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>2</v>
+      </c>
+      <c r="D74" t="n">
+        <v>21</v>
+      </c>
+      <c r="E74" t="n">
+        <v>33</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>GW-9885</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>A5E1C318-6586-40FC-8087-C1D37B933A9A.jpg</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v/>
+      </c>
+      <c r="D75" t="n">
+        <v>15</v>
+      </c>
+      <c r="E75" t="n">
+        <v/>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>**HRSP-27-5**,core</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>31608FFC-DF29-43AF-98CD-89BB57B901EE.jpg</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v/>
+      </c>
+      <c r="D76" t="n">
+        <v/>
+      </c>
+      <c r="E76" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>49D625B3-2C33-44EE-BDE7-4A5A88E5E66B.jpg</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>22</v>
+      </c>
+      <c r="E77" t="n">
+        <v>9</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>**BESC-840**,core</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>51A1F07D-3003-4197-B764-EE6CF3E9A5A5.jpg</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>7</v>
+      </c>
+      <c r="E78" t="n">
+        <v>45</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>BESC-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>0537961F-5C88-401C-A397-0ABF10926A9B.jpg</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>41</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>BESC-148</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>EE267AE2-893C-42FB-8394-FEED9862FBB6.jpg</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v/>
+      </c>
+      <c r="D80" t="n">
+        <v>2</v>
+      </c>
+      <c r="E80" t="n">
+        <v>34</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>**BESC-409**,core</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>F16D2552-C754-4930-8FF6-5D50B1130999.jpg</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>2</v>
+      </c>
+      <c r="D81" t="n">
+        <v>11</v>
+      </c>
+      <c r="E81" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>F96B61BC-E33E-4CBD-96E5-682DE1059D9C.jpg</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>2</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2</v>
+      </c>
+      <c r="E82" t="n">
+        <v>54</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>**SKWA-24-5**,core</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>57779DCC-38D8-48F5-B06C-63E376D6E461.jpg</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>9</v>
+      </c>
+      <c r="E83" t="n">
+        <v>76</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>GW-4579</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>BCCFB959-36E0-41FB-BE33-65B3543693C6.jpg</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3</v>
+      </c>
+      <c r="E84" t="n">
+        <v>19</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>BESC-801</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>F014EB9A-F646-4EAE-8CF4-3982C4173DA6.jpg</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>2</v>
+      </c>
+      <c r="D85" t="n">
+        <v>18</v>
+      </c>
+      <c r="E85" t="n">
+        <v>40</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>**DENC-17-5**,core</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>56A4F106-329F-4A83-8F22-A5CA90444B73.jpg</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>16</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>**BESC-1239**,core</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>4577BBAE-F2FF-4AEF-97CC-FFA9AB4E29CA.jpg</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>5</v>
+      </c>
+      <c r="E87" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>1696100E-20DE-49A1-948F-C5EAE7EE11DE.jpg</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>2</v>
+      </c>
+      <c r="D88" t="n">
+        <v>23</v>
+      </c>
+      <c r="E88" t="n">
+        <v>34</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>BESC-1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>B69B9328-4001-41F6-8BD3-8F4410F4092C.jpg</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v/>
+      </c>
+      <c r="D89" t="n">
+        <v>4</v>
+      </c>
+      <c r="E89" t="n">
+        <v>9</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>BESC-856</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>26C10158-C024-42A3-A67C-39F5D8D8E321.jpg</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>81</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>BESC-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>F1B51864-0F56-414B-BA15-176A3D651799.jpg</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>45</v>
+      </c>
+      <c r="E91" t="n">
+        <v>19</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>HOMD-21-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>12E437AA-24E9-44BE-8131-BF4044892F5F.jpg</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>18</v>
+      </c>
+      <c r="E92" t="n">
+        <v>9</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>**CHWJ-27-1**,core</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>DB3924E7-317F-4999-B688-38C941E562C8.jpg</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>26</v>
+      </c>
+      <c r="E93" t="n">
+        <v>10</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>GW-2591</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>68CDE700-9088-4688-8A9A-2F114B62DC62.jpg</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>4</v>
+      </c>
+      <c r="E94" t="n">
+        <v>64</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>GW-9896</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>A342B012-1A69-4C7C-8D24-DC7FE504EE04.jpg</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>6</v>
+      </c>
+      <c r="E95" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>D4ECCF29-49F9-4FBA-8294-B0FD0C607334.jpg</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v/>
+      </c>
+      <c r="D96" t="n">
+        <v>31</v>
+      </c>
+      <c r="E96" t="n">
+        <v>58</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>BESC-1160</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>0785C034-3380-49D7-9563-7109D0C5CB04.jpg</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>27</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>**BESC-1143**,core</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>26762762-1D62-481A-B4C8-B98EDC70BBF1.jpg</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>22</v>
+      </c>
+      <c r="E98" t="n">
+        <v>25</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>**GW-9810**,core</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>65AF52F0-EFA8-495B-B85A-869B32B471CF.jpg</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>7</v>
+      </c>
+      <c r="E99" t="n">
+        <v>9</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>BESC-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>3021C122-0F3E-472A-9F88-E37330E5BC6F.jpg</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v/>
+      </c>
+      <c r="D100" t="n">
+        <v/>
+      </c>
+      <c r="E100" t="n">
+        <v/>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>GW-9969</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>308CF1A3-E4A3-48D4-A5A5-7FAB4F969A05.jpg</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>2</v>
+      </c>
+      <c r="D101" t="n">
+        <v>8</v>
+      </c>
+      <c r="E101" t="n">
+        <v>44</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>GW-9898</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>D0727740-16BD-4F7C-98DF-27F6D097F2FA.jpg</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="n">
+        <v>22</v>
+      </c>
+      <c r="E102" t="n">
+        <v>7</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>**GW-9845**,core</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>4988F65C-D659-45E4-962B-FE87F2E481CB.jpg</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>38</v>
+      </c>
+      <c r="E103" t="n">
+        <v>9</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>GW-9951</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>B2D6DDEB-5AD4-4417-8DDA-E27519F453DD.jpg</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>2</v>
+      </c>
+      <c r="D104" t="n">
+        <v>32</v>
+      </c>
+      <c r="E104" t="n">
+        <v>46</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>FNYI-28-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>E5582612-F14D-46BC-8B5F-6C4D3BE576E1.jpg</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v/>
+      </c>
+      <c r="D105" t="n">
+        <v/>
+      </c>
+      <c r="E105" t="n">
+        <v/>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>BESC-1013</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>100805E9-E549-4EC0-922D-C8261CBEAB13.jpg</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>4</v>
+      </c>
+      <c r="E106" t="n">
+        <v>60</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>GW-8611</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>BDC1EAF6-BE5D-4267-B6E6-05A0FE1FFB97.jpg</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>2</v>
+      </c>
+      <c r="D107" t="n">
+        <v>7</v>
+      </c>
+      <c r="E107" t="n">
+        <v>49</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>**BESC-13**,core</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>64C5C725-7918-46C3-B34D-7300E2DEC619.jpg</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>2</v>
+      </c>
+      <c r="D108" t="n">
+        <v>5</v>
+      </c>
+      <c r="E108" t="n">
+        <v>54</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>BESC-306</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>44AFC3F1-E18D-4653-88B7-823EEB6A67E1.jpg</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>31</v>
+      </c>
+      <c r="E109" t="n">
+        <v>7</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>GW-2631</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>C55919A7-FDE1-4E84-9843-432B85F752D9.jpg</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>2</v>
+      </c>
+      <c r="D110" t="n">
+        <v>45</v>
+      </c>
+      <c r="E110" t="n">
+        <v>58</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>BESC-204</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>E8F6DBDF-4ED8-4CC0-8737-DED311B010E5.jpg</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>2</v>
+      </c>
+      <c r="D111" t="n">
+        <v>28</v>
+      </c>
+      <c r="E111" t="n">
+        <v>60</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>GW-9890</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>AE73B911-1124-42D5-A0E8-39A632ECDE98.jpg</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>2</v>
+      </c>
+      <c r="D112" t="n">
+        <v>43</v>
+      </c>
+      <c r="E112" t="n">
+        <v>34</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>BESC-371</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>8A8855CA-E051-43C6-A846-9E0CD84CAB2C.jpg</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>2</v>
+      </c>
+      <c r="D113" t="n">
+        <v>35</v>
+      </c>
+      <c r="E113" t="n">
+        <v>39</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>BESC-291</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>B64DD07D-46AA-4D3A-8D94-34B24C785452.jpg</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>5</v>
+      </c>
+      <c r="E114" t="n">
+        <v>68</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>HOMB-21-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>025A4A07-EA73-427A-8A03-8D65CFBEAC97.jpg</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>9</v>
+      </c>
+      <c r="E115" t="n">
+        <v>13</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>BESC-215</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>C549A8F7-F896-402A-A801-76C91CDD371F.jpg</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>27</v>
+      </c>
+      <c r="E116" t="n">
+        <v>7</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>KLNE-20-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>878CA140-A5BE-4635-8E7D-361B3B30C63C.jpg</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>2</v>
+      </c>
+      <c r="D117" t="n">
+        <v>6</v>
+      </c>
+      <c r="E117" t="n">
+        <v>44</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>**BESC-388**,core</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>D27E0F72-0BDC-4530-A069-EF8B35C30039.jpg</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v/>
+      </c>
+      <c r="D118" t="n">
+        <v/>
+      </c>
+      <c r="E118" t="n">
+        <v>62</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>GW-9904</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>35E52C52-AE48-4A4C-B2D9-E0447053FF8F.jpg</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>24</v>
+      </c>
+      <c r="E119" t="n">
+        <v>31</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>BESC-1018</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>F980A6C4-CD10-47CB-B65A-5459B89CC6D5.jpg</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>2</v>
+      </c>
+      <c r="D120" t="n">
+        <v>41</v>
+      </c>
+      <c r="E120" t="n">
+        <v>54</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>BESC-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>E1C1230A-4B26-4585-B664-7509A2C0F724.jpg</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v/>
+      </c>
+      <c r="D121" t="n">
+        <v/>
+      </c>
+      <c r="E121" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>86AE841D-1152-4CFE-A8C7-BFEB1B12366D.jpg</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>9</v>
+      </c>
+      <c r="E122" t="n">
+        <v>19</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>GLCA-26-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2296ED45-25F2-40C2-97C7-39137499E370.jpg</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>9</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>BESC-1103</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>FF072642-7A58-4591-9E86-0EEF21D990C7.jpg</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>2</v>
+      </c>
+      <c r="D124" t="n">
+        <v>7</v>
+      </c>
+      <c r="E124" t="n">
+        <v>47</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>**GW-9960**,core</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>9D27564B-D99B-4D3A-BB78-871CF171487F.jpg</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>5</v>
+      </c>
+      <c r="E125" t="n">
+        <v>17</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>GW-9865</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>D62C4F33-F811-40A5-850A-293736197CCC.jpg</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v/>
+      </c>
+      <c r="D126" t="n">
+        <v>22</v>
+      </c>
+      <c r="E126" t="n">
+        <v>24</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>**GW-9948**,core</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>642E0A74-C798-4147-9CED-18EDC682B86A.jpg</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v/>
+      </c>
+      <c r="D127" t="n">
+        <v/>
+      </c>
+      <c r="E127" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>8E3E2C9F-DEE9-4F78-B3A2-4903BF09D5BE.jpg</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v/>
+      </c>
+      <c r="D128" t="n">
+        <v/>
+      </c>
+      <c r="E128" t="n">
+        <v>72</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>GW-2045</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>1808DE9D-4E4D-4256-804D-F52F327F7038.jpg</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v/>
+      </c>
+      <c r="D129" t="n">
+        <v>9</v>
+      </c>
+      <c r="E129" t="n">
+        <v>15</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>GW-9763</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>86E056DD-41EF-49B8-9CA0-87280B6A4E09.jpg</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>73</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>BESC-274</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>5E7C098B-6D36-4260-81C2-59C632F6B638.jpg</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v/>
+      </c>
+      <c r="D131" t="n">
+        <v/>
+      </c>
+      <c r="E131" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>3DEF07A5-68E2-462D-9A8B-EC365B6BA766.jpg</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>5</v>
+      </c>
+      <c r="E132" t="n">
+        <v>23</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>BESC-337</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>CED3077D-19D9-424B-81B1-8ACF628569EF.jpg</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>37</v>
+      </c>
+      <c r="E133" t="n">
+        <v>23</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>BESC-295</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>6D7E11C9-1AED-4975-A2F1-48A70F067752.jpg</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>40</v>
+      </c>
+      <c r="E134" t="n">
+        <v>19</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>**SKWC-24-1**,core</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>F91710DE-E49F-4CE6-862C-D5C18A0D389C.jpg</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>22</v>
+      </c>
+      <c r="E135" t="n">
+        <v>10</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>BESC-146</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>3F9DBCAA-BEC6-47D1-9C6C-9679657D95F5.jpg</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>2</v>
+      </c>
+      <c r="D136" t="n">
+        <v>23</v>
+      </c>
+      <c r="E136" t="n">
+        <v>58</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>BESC-248</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>70D271BF-072A-494C-8B3E-9164FB8E38FE.jpg</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>22</v>
+      </c>
+      <c r="E137" t="n">
+        <v>26</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>BESC-896</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>58BCAADE-A998-40E3-A689-8C0829195B72.jpg</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="n">
+        <v/>
+      </c>
+      <c r="E138" t="n">
+        <v/>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>**BESC-1007**,core</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>64FABA89-D0A0-426C-9D35-B22068CF71C3.jpg</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>3</v>
+      </c>
+      <c r="E139" t="n">
+        <v>42</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>BESC-1183</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>10DB1BB5-60BB-444B-8AA8-332F474848CC.jpg</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>29</v>
+      </c>
+      <c r="E140" t="n">
+        <v>17</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>**LILB-26-3**,core</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>26298E03-CAFA-4B40-915F-0246BC0BD147.jpg</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>2</v>
+      </c>
+      <c r="D141" t="n">
+        <v>31</v>
+      </c>
+      <c r="E141" t="n">
+        <v>42</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>**BESC-1204**,core</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>B5C9C4AD-A486-4238-AA98-48E7154FC4D8.jpg</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>2</v>
+      </c>
+      <c r="D142" t="n">
+        <v>31</v>
+      </c>
+      <c r="E142" t="n">
+        <v>36</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>**GW-9766**,core</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>E2E59605-7DE1-45AF-9D7F-E8ADF2608CF5.jpg</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v/>
+      </c>
+      <c r="D143" t="n">
+        <v/>
+      </c>
+      <c r="E143" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>A1223DD2-5D52-4CF2-87BE-AA86C94D3573.jpg</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v/>
+      </c>
+      <c r="D144" t="n">
+        <v/>
+      </c>
+      <c r="E144" t="n">
+        <v/>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>**KLNG-20-3**,core</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>FDC553B4-C789-4ABE-882A-029E8D1FEEDD.jpg</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="n">
+        <v/>
+      </c>
+      <c r="E145" t="n">
+        <v/>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>BESC-1223</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>D6A45EE8-805D-487E-A2C1-D6E4A0408155.jpg</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>9</v>
+      </c>
+      <c r="E146" t="n">
+        <v>6</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>**GLCB-26-2**,core</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>B161F6EE-BDA7-47CE-9F00-F20C4812362A.jpg</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>43</v>
+      </c>
+      <c r="E147" t="n">
+        <v>23</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>**BESC-183**,core</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>DBA9A97C-2A63-48AC-9E22-C470EC433897.jpg</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>9</v>
+      </c>
+      <c r="E148" t="n">
+        <v>64</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>SKWB-24-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>E71C787C-0B0A-49B8-B392-96483A145E5A.jpg</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1</v>
+      </c>
+      <c r="E149" t="n">
+        <v>30</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>**GW-9854**,core</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>A9867A93-81A4-47A6-B553-C953FFE34CE1.jpg</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>8</v>
+      </c>
+      <c r="E150" t="n">
+        <v>18</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>BESC-832</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>3134EBC5-CD0D-48CE-BF45-C60F8061CE3D.jpg</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>2</v>
+      </c>
+      <c r="D151" t="n">
+        <v>36</v>
+      </c>
+      <c r="E151" t="n">
+        <v>49</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>**BESC-176**,core</t>
+        </is>
       </c>
     </row>
   </sheetData>
